--- a/dataset/Matching_Results_Comparison/阈值设置30%.xlsx
+++ b/dataset/Matching_Results_Comparison/阈值设置30%.xlsx
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.9650259067357513</v>
+        <v>0.9766839378238342</v>
       </c>
     </row>
     <row r="3">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>411</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>调用失败</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>调用失败</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="H103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -7986,7 +7986,11 @@
           <t>['手术及操作名称', '手术及操作编码', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr"/>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>手术及操作名称</t>
+        </is>
+      </c>
       <c r="D227" t="n">
         <v>6.8673</v>
       </c>
@@ -8004,7 +8008,7 @@
         </is>
       </c>
       <c r="H227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -8330,7 +8334,11 @@
           <t>['手术及操作编码', '2.一般治疗操作费', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr"/>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>手术及操作编码</t>
+        </is>
+      </c>
       <c r="D238" t="n">
         <v>7.0628</v>
       </c>
@@ -8348,7 +8356,7 @@
         </is>
       </c>
       <c r="H238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -8362,7 +8370,11 @@
           <t>['手术及操作名称', '2.一般治疗操作费', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr"/>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>手术及操作名称</t>
+        </is>
+      </c>
       <c r="D239" t="n">
         <v>6.8673</v>
       </c>
@@ -8380,7 +8392,7 @@
         </is>
       </c>
       <c r="H239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -8394,11 +8406,7 @@
           <t>['手术及操作日期', '2.一般治疗操作费', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C240" t="inlineStr"/>
       <c r="D240" t="n">
         <v>8.501899999999999</v>
       </c>
@@ -8416,7 +8424,7 @@
         </is>
       </c>
       <c r="H240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -8706,11 +8714,7 @@
           <t>['手术及操作编码', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>手术及操作编码</t>
-        </is>
-      </c>
+      <c r="C250" t="inlineStr"/>
       <c r="D250" t="n">
         <v>7.0628</v>
       </c>
@@ -8728,7 +8732,7 @@
         </is>
       </c>
       <c r="H250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -9930,7 +9934,11 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C288" t="inlineStr"/>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>手术及操作日期</t>
+        </is>
+      </c>
       <c r="D288" t="n">
         <v>8.501899999999999</v>
       </c>
@@ -9948,7 +9956,7 @@
         </is>
       </c>
       <c r="H288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -10622,11 +10630,7 @@
           <t>['手术及操作编码', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>手术及操作编码</t>
-        </is>
-      </c>
+      <c r="C310" t="inlineStr"/>
       <c r="D310" t="n">
         <v>7.0628</v>
       </c>
@@ -10644,7 +10648,7 @@
         </is>
       </c>
       <c r="H310" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -10694,7 +10698,11 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C312" t="inlineStr"/>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>手术及操作日期</t>
+        </is>
+      </c>
       <c r="D312" t="n">
         <v>8.501899999999999</v>
       </c>
@@ -10712,7 +10720,7 @@
         </is>
       </c>
       <c r="H312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -10726,7 +10734,11 @@
           <t>['手术级别', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C313" t="inlineStr"/>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>手术级别</t>
+        </is>
+      </c>
       <c r="D313" t="n">
         <v>7.5239</v>
       </c>
@@ -10744,7 +10756,7 @@
         </is>
       </c>
       <c r="H313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -11418,11 +11430,7 @@
           <t>['手术及操作名称', '10.手术治疗费', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C335" t="inlineStr"/>
       <c r="D335" t="n">
         <v>6.8673</v>
       </c>
@@ -11440,7 +11448,7 @@
         </is>
       </c>
       <c r="H335" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -11554,7 +11562,11 @@
           <t>['10.手术治疗费', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C339" t="inlineStr"/>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>手术及操作名称</t>
+        </is>
+      </c>
       <c r="D339" t="n">
         <v>5.929</v>
       </c>
@@ -11568,7 +11580,7 @@
       </c>
       <c r="G339" t="inlineStr"/>
       <c r="H339" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -12162,7 +12174,11 @@
           <t>['手术及操作编码', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C358" t="inlineStr"/>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>手术及操作编码</t>
+        </is>
+      </c>
       <c r="D358" t="n">
         <v>7.0628</v>
       </c>
@@ -12180,7 +12196,7 @@
         </is>
       </c>
       <c r="H358" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -12266,7 +12282,11 @@
           <t>['手术级别', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C361" t="inlineStr"/>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>手术级别</t>
+        </is>
+      </c>
       <c r="D361" t="n">
         <v>7.5239</v>
       </c>
@@ -12284,7 +12304,7 @@
         </is>
       </c>
       <c r="H361" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -12958,11 +12978,7 @@
           <t>['手术及操作名称', '手术及操作编码', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C383" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C383" t="inlineStr"/>
       <c r="D383" t="n">
         <v>6.8673</v>
       </c>
@@ -12980,7 +12996,7 @@
         </is>
       </c>
       <c r="H383" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -13762,7 +13778,11 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C408" t="inlineStr"/>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>手术及操作日期</t>
+        </is>
+      </c>
       <c r="D408" t="n">
         <v>8.501899999999999</v>
       </c>
@@ -13780,7 +13800,7 @@
         </is>
       </c>
       <c r="H408" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -14178,11 +14198,7 @@
           <t>['手术级别', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C421" t="inlineStr">
-        <is>
-          <t>手术级别</t>
-        </is>
-      </c>
+      <c r="C421" t="inlineStr"/>
       <c r="D421" t="n">
         <v>7.5239</v>
       </c>
@@ -14200,7 +14216,7 @@
         </is>
       </c>
       <c r="H421" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -14526,7 +14542,11 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C432" t="inlineStr"/>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>手术及操作日期</t>
+        </is>
+      </c>
       <c r="D432" t="n">
         <v>8.501899999999999</v>
       </c>
@@ -14544,7 +14564,7 @@
         </is>
       </c>
       <c r="H432" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
@@ -14906,11 +14926,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C444" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C444" t="inlineStr"/>
       <c r="D444" t="n">
         <v>8.501899999999999</v>
       </c>
@@ -14928,7 +14944,7 @@
         </is>
       </c>
       <c r="H444" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
@@ -15290,7 +15306,11 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C456" t="inlineStr"/>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>手术及操作日期</t>
+        </is>
+      </c>
       <c r="D456" t="n">
         <v>8.501899999999999</v>
       </c>
@@ -15308,7 +15328,7 @@
         </is>
       </c>
       <c r="H456" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
@@ -17626,11 +17646,7 @@
           <t>['手术级别', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C529" t="inlineStr">
-        <is>
-          <t>手术级别</t>
-        </is>
-      </c>
+      <c r="C529" t="inlineStr"/>
       <c r="D529" t="n">
         <v>7.5239</v>
       </c>
@@ -17648,7 +17664,7 @@
         </is>
       </c>
       <c r="H529" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
@@ -17974,7 +17990,11 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C540" t="inlineStr"/>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>手术及操作日期</t>
+        </is>
+      </c>
       <c r="D540" t="n">
         <v>8.501899999999999</v>
       </c>
@@ -17992,7 +18012,7 @@
         </is>
       </c>
       <c r="H540" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541">
@@ -18006,7 +18026,11 @@
           <t>['手术级别', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C541" t="inlineStr"/>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>手术级别</t>
+        </is>
+      </c>
       <c r="D541" t="n">
         <v>7.5239</v>
       </c>
@@ -18024,7 +18048,7 @@
         </is>
       </c>
       <c r="H541" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
@@ -19538,11 +19562,7 @@
           <t>['手术级别', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C589" t="inlineStr">
-        <is>
-          <t>手术级别</t>
-        </is>
-      </c>
+      <c r="C589" t="inlineStr"/>
       <c r="D589" t="n">
         <v>7.5239</v>
       </c>
@@ -19560,7 +19580,7 @@
         </is>
       </c>
       <c r="H589" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590">
@@ -19922,11 +19942,7 @@
           <t>['手术级别', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C601" t="inlineStr">
-        <is>
-          <t>手术级别</t>
-        </is>
-      </c>
+      <c r="C601" t="inlineStr"/>
       <c r="D601" t="n">
         <v>7.5239</v>
       </c>
@@ -19944,7 +19960,7 @@
         </is>
       </c>
       <c r="H601" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
@@ -20306,7 +20322,11 @@
           <t>['手术级别', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C613" t="inlineStr"/>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>手术级别</t>
+        </is>
+      </c>
       <c r="D613" t="n">
         <v>7.5239</v>
       </c>
@@ -20324,7 +20344,7 @@
         </is>
       </c>
       <c r="H613" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
@@ -20686,7 +20706,11 @@
           <t>['手术级别', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C625" t="inlineStr"/>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>手术级别</t>
+        </is>
+      </c>
       <c r="D625" t="n">
         <v>7.5239</v>
       </c>
@@ -20704,7 +20728,7 @@
         </is>
       </c>
       <c r="H625" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626">
@@ -21726,7 +21750,11 @@
           <t>['手术及操作编码', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C658" t="inlineStr"/>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>手术及操作编码</t>
+        </is>
+      </c>
       <c r="D658" t="n">
         <v>7.0628</v>
       </c>
@@ -21744,7 +21772,7 @@
         </is>
       </c>
       <c r="H658" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659">
@@ -22214,7 +22242,11 @@
           <t>['手术级别', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C673" t="inlineStr"/>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>手术级别</t>
+        </is>
+      </c>
       <c r="D673" t="n">
         <v>7.5239</v>
       </c>
@@ -22232,7 +22264,7 @@
         </is>
       </c>
       <c r="H673" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674">
@@ -22486,7 +22518,11 @@
           <t>['手术及操作编码', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C682" t="inlineStr"/>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>手术及操作编码</t>
+        </is>
+      </c>
       <c r="D682" t="n">
         <v>7.0628</v>
       </c>
@@ -22504,7 +22540,7 @@
         </is>
       </c>
       <c r="H682" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683">

--- a/dataset/Matching_Results_Comparison/阈值设置30%.xlsx
+++ b/dataset/Matching_Results_Comparison/阈值设置30%.xlsx
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.9766839378238342</v>
+        <v>0.9715025906735751</v>
       </c>
     </row>
     <row r="3">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -1878,11 +1878,7 @@
           <t>['其他诊断诊断名称', '7.影像学诊断费', '其他诊断']</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
         <v>6.0773</v>
       </c>
@@ -1900,7 +1896,7 @@
         </is>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -8334,11 +8330,7 @@
           <t>['手术及操作编码', '2.一般治疗操作费', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>手术及操作编码</t>
-        </is>
-      </c>
+      <c r="C238" t="inlineStr"/>
       <c r="D238" t="n">
         <v>7.0628</v>
       </c>
@@ -8356,7 +8348,7 @@
         </is>
       </c>
       <c r="H238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -8406,7 +8398,11 @@
           <t>['手术及操作日期', '2.一般治疗操作费', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr"/>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>手术及操作日期</t>
+        </is>
+      </c>
       <c r="D240" t="n">
         <v>8.501899999999999</v>
       </c>
@@ -8424,7 +8420,7 @@
         </is>
       </c>
       <c r="H240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -8714,7 +8710,11 @@
           <t>['手术及操作编码', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr"/>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>手术及操作编码</t>
+        </is>
+      </c>
       <c r="D250" t="n">
         <v>7.0628</v>
       </c>
@@ -8732,7 +8732,7 @@
         </is>
       </c>
       <c r="H250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -9934,11 +9934,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C288" t="inlineStr"/>
       <c r="D288" t="n">
         <v>8.501899999999999</v>
       </c>
@@ -9956,7 +9952,7 @@
         </is>
       </c>
       <c r="H288" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -10630,7 +10626,11 @@
           <t>['手术及操作编码', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C310" t="inlineStr"/>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>手术及操作编码</t>
+        </is>
+      </c>
       <c r="D310" t="n">
         <v>7.0628</v>
       </c>
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="H310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -11082,11 +11082,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C324" t="inlineStr"/>
       <c r="D324" t="n">
         <v>8.501899999999999</v>
       </c>
@@ -11104,7 +11100,7 @@
         </is>
       </c>
       <c r="H324" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -11430,7 +11426,11 @@
           <t>['手术及操作名称', '10.手术治疗费', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C335" t="inlineStr"/>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>手术及操作名称</t>
+        </is>
+      </c>
       <c r="D335" t="n">
         <v>6.8673</v>
       </c>
@@ -11448,7 +11448,7 @@
         </is>
       </c>
       <c r="H335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -11758,11 +11758,7 @@
           <t>['10.手术治疗费', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C345" t="inlineStr"/>
       <c r="D345" t="n">
         <v>5.929</v>
       </c>
@@ -11776,7 +11772,7 @@
       </c>
       <c r="G345" t="inlineStr"/>
       <c r="H345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -12978,7 +12974,11 @@
           <t>['手术及操作名称', '手术及操作编码', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C383" t="inlineStr"/>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>手术及操作名称</t>
+        </is>
+      </c>
       <c r="D383" t="n">
         <v>6.8673</v>
       </c>
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="H383" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
@@ -14198,7 +14198,11 @@
           <t>['手术级别', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C421" t="inlineStr"/>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>手术级别</t>
+        </is>
+      </c>
       <c r="D421" t="n">
         <v>7.5239</v>
       </c>
@@ -14216,7 +14220,7 @@
         </is>
       </c>
       <c r="H421" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -14926,7 +14930,11 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C444" t="inlineStr"/>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>手术及操作日期</t>
+        </is>
+      </c>
       <c r="D444" t="n">
         <v>8.501899999999999</v>
       </c>
@@ -14944,7 +14952,7 @@
         </is>
       </c>
       <c r="H444" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -16770,11 +16778,7 @@
           <t>['手术及操作编码', '24.其他费：', '手术及操作名称']</t>
         </is>
       </c>
-      <c r="C502" t="inlineStr">
-        <is>
-          <t>手术及操作编码</t>
-        </is>
-      </c>
+      <c r="C502" t="inlineStr"/>
       <c r="D502" t="n">
         <v>7.0628</v>
       </c>
@@ -16792,7 +16796,7 @@
         </is>
       </c>
       <c r="H502" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
@@ -17646,7 +17650,11 @@
           <t>['手术级别', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C529" t="inlineStr"/>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>手术级别</t>
+        </is>
+      </c>
       <c r="D529" t="n">
         <v>7.5239</v>
       </c>
@@ -17664,7 +17672,7 @@
         </is>
       </c>
       <c r="H529" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
@@ -17954,11 +17962,7 @@
           <t>['手术及操作名称', '手术及操作编码', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C539" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C539" t="inlineStr"/>
       <c r="D539" t="n">
         <v>6.8673</v>
       </c>
@@ -17976,7 +17980,7 @@
         </is>
       </c>
       <c r="H539" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -18410,11 +18414,7 @@
           <t>['手术级别', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C553" t="inlineStr">
-        <is>
-          <t>手术级别</t>
-        </is>
-      </c>
+      <c r="C553" t="inlineStr"/>
       <c r="D553" t="n">
         <v>7.5239</v>
       </c>
@@ -18432,7 +18432,7 @@
         </is>
       </c>
       <c r="H553" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -19562,7 +19562,11 @@
           <t>['手术级别', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C589" t="inlineStr"/>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>手术级别</t>
+        </is>
+      </c>
       <c r="D589" t="n">
         <v>7.5239</v>
       </c>
@@ -19580,7 +19584,7 @@
         </is>
       </c>
       <c r="H589" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
@@ -22428,7 +22432,7 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>麻醉方式</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D679" t="n">
@@ -22448,7 +22452,7 @@
         </is>
       </c>
       <c r="H679" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680">
@@ -22626,11 +22630,7 @@
           <t>['手术级别', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C685" t="inlineStr">
-        <is>
-          <t>手术级别</t>
-        </is>
-      </c>
+      <c r="C685" t="inlineStr"/>
       <c r="D685" t="n">
         <v>7.5239</v>
       </c>
@@ -22648,7 +22648,7 @@
         </is>
       </c>
       <c r="H685" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686">
@@ -24292,7 +24292,7 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>进重症监护室时间</t>
+          <t>进重症监护病房记录</t>
         </is>
       </c>
       <c r="D739" t="n">
@@ -24312,7 +24312,7 @@
         </is>
       </c>
       <c r="H739" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740">
@@ -24400,7 +24400,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>进重症监护室时间</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D742" t="n">
@@ -24420,7 +24420,7 @@
         </is>
       </c>
       <c r="H742" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743">
@@ -24688,7 +24688,7 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>5.病理诊断费</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D750" t="n">
@@ -24708,7 +24708,7 @@
         </is>
       </c>
       <c r="H750" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751">
@@ -25192,7 +25192,7 @@
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>15.中草药费</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D764" t="n">
@@ -25212,7 +25212,7 @@
         </is>
       </c>
       <c r="H764" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765">
@@ -25372,7 +25372,7 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>20.细胞因子类制品费</t>
+          <t>其他诊断入院病情</t>
         </is>
       </c>
       <c r="D769" t="n">
@@ -25392,7 +25392,7 @@
         </is>
       </c>
       <c r="H769" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770">

--- a/dataset/Matching_Results_Comparison/阈值设置30%.xlsx
+++ b/dataset/Matching_Results_Comparison/阈值设置30%.xlsx
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.9715025906735751</v>
+        <v>0.9805699481865285</v>
       </c>
     </row>
     <row r="3">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1878,7 +1878,11 @@
           <t>['其他诊断诊断名称', '7.影像学诊断费', '其他诊断']</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>其他诊断诊断名称</t>
+        </is>
+      </c>
       <c r="D42" t="n">
         <v>6.0773</v>
       </c>
@@ -1896,7 +1900,7 @@
         </is>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2556,7 +2560,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>其他诊断诊断名称</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -2576,7 +2580,7 @@
         </is>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -8330,7 +8334,11 @@
           <t>['手术及操作编码', '2.一般治疗操作费', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr"/>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>手术及操作编码</t>
+        </is>
+      </c>
       <c r="D238" t="n">
         <v>7.0628</v>
       </c>
@@ -8348,7 +8356,7 @@
         </is>
       </c>
       <c r="H238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -9934,7 +9942,11 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C288" t="inlineStr"/>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>手术及操作日期</t>
+        </is>
+      </c>
       <c r="D288" t="n">
         <v>8.501899999999999</v>
       </c>
@@ -9952,7 +9964,7 @@
         </is>
       </c>
       <c r="H288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -11082,7 +11094,11 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C324" t="inlineStr"/>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>手术及操作日期</t>
+        </is>
+      </c>
       <c r="D324" t="n">
         <v>8.501899999999999</v>
       </c>
@@ -11100,7 +11116,7 @@
         </is>
       </c>
       <c r="H324" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -11534,7 +11550,11 @@
           <t>['10.手术治疗费', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C338" t="inlineStr"/>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>手术及操作名称</t>
+        </is>
+      </c>
       <c r="D338" t="n">
         <v>5.929</v>
       </c>
@@ -11548,7 +11568,7 @@
       </c>
       <c r="G338" t="inlineStr"/>
       <c r="H338" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -11758,7 +11778,11 @@
           <t>['10.手术治疗费', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr"/>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>手术及操作名称</t>
+        </is>
+      </c>
       <c r="D345" t="n">
         <v>5.929</v>
       </c>
@@ -11772,7 +11796,7 @@
       </c>
       <c r="G345" t="inlineStr"/>
       <c r="H345" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -16778,7 +16802,11 @@
           <t>['手术及操作编码', '24.其他费：', '手术及操作名称']</t>
         </is>
       </c>
-      <c r="C502" t="inlineStr"/>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>手术及操作编码</t>
+        </is>
+      </c>
       <c r="D502" t="n">
         <v>7.0628</v>
       </c>
@@ -16796,7 +16824,7 @@
         </is>
       </c>
       <c r="H502" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
@@ -17962,7 +17990,11 @@
           <t>['手术及操作名称', '手术及操作编码', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C539" t="inlineStr"/>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>手术及操作名称</t>
+        </is>
+      </c>
       <c r="D539" t="n">
         <v>6.8673</v>
       </c>
@@ -17980,7 +18012,7 @@
         </is>
       </c>
       <c r="H539" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
@@ -18414,7 +18446,11 @@
           <t>['手术级别', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C553" t="inlineStr"/>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>手术级别</t>
+        </is>
+      </c>
       <c r="D553" t="n">
         <v>7.5239</v>
       </c>
@@ -18432,7 +18468,7 @@
         </is>
       </c>
       <c r="H553" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
@@ -19946,7 +19982,11 @@
           <t>['手术级别', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C601" t="inlineStr"/>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>手术级别</t>
+        </is>
+      </c>
       <c r="D601" t="n">
         <v>7.5239</v>
       </c>
@@ -19964,7 +20004,7 @@
         </is>
       </c>
       <c r="H601" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
@@ -22432,7 +22472,7 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>其他诊断入院病情</t>
+          <t>麻醉方式</t>
         </is>
       </c>
       <c r="D679" t="n">
@@ -22452,7 +22492,7 @@
         </is>
       </c>
       <c r="H679" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680">
@@ -22630,7 +22670,11 @@
           <t>['手术级别', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C685" t="inlineStr"/>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>手术级别</t>
+        </is>
+      </c>
       <c r="D685" t="n">
         <v>7.5239</v>
       </c>
@@ -22648,7 +22692,7 @@
         </is>
       </c>
       <c r="H685" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686">
@@ -24292,7 +24336,7 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>进重症监护病房记录</t>
+          <t>进重症监护室时间</t>
         </is>
       </c>
       <c r="D739" t="n">
@@ -24312,7 +24356,7 @@
         </is>
       </c>
       <c r="H739" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740">
@@ -24400,7 +24444,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>其他诊断入院病情</t>
+          <t>进重症监护室时间</t>
         </is>
       </c>
       <c r="D742" t="n">
@@ -24420,7 +24464,7 @@
         </is>
       </c>
       <c r="H742" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743">
@@ -24688,7 +24732,7 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>其他诊断入院病情</t>
+          <t>5.病理诊断费</t>
         </is>
       </c>
       <c r="D750" t="n">
@@ -24708,7 +24752,7 @@
         </is>
       </c>
       <c r="H750" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751">
@@ -24868,7 +24912,7 @@
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>其中：临床物理治疗费</t>
+          <t>其中:临床物理治疗费</t>
         </is>
       </c>
       <c r="D755" t="n">
@@ -24888,7 +24932,7 @@
         </is>
       </c>
       <c r="H755" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756">
@@ -24940,7 +24984,7 @@
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>其中：麻醉费</t>
+          <t>其中:麻醉费</t>
         </is>
       </c>
       <c r="D757" t="n">
@@ -24960,7 +25004,7 @@
         </is>
       </c>
       <c r="H757" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758">
@@ -24976,7 +25020,7 @@
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>其中：手术费</t>
+          <t>其中:手术费</t>
         </is>
       </c>
       <c r="D758" t="n">
@@ -24996,7 +25040,7 @@
         </is>
       </c>
       <c r="H758" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759">
@@ -25120,7 +25164,7 @@
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>其中：抗菌药物费</t>
+          <t>其中:抗菌药物费</t>
         </is>
       </c>
       <c r="D762" t="n">
@@ -25140,7 +25184,7 @@
         </is>
       </c>
       <c r="H762" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763">
@@ -25192,7 +25236,7 @@
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>其他诊断入院病情</t>
+          <t>15.中草药费</t>
         </is>
       </c>
       <c r="D764" t="n">
@@ -25212,7 +25256,7 @@
         </is>
       </c>
       <c r="H764" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765">
@@ -25372,7 +25416,7 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>其他诊断入院病情</t>
+          <t>20.细胞因子类制品费</t>
         </is>
       </c>
       <c r="D769" t="n">
@@ -25392,7 +25436,7 @@
         </is>
       </c>
       <c r="H769" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770">
@@ -25516,7 +25560,7 @@
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>24.其他费：</t>
+          <t>24.其他费:</t>
         </is>
       </c>
       <c r="D773" t="n">
@@ -25536,7 +25580,7 @@
         </is>
       </c>
       <c r="H773" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
